--- a/Data/EC/NIT-9009453979.xlsx
+++ b/Data/EC/NIT-9009453979.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E681158A-01C8-4481-B8A6-098915E58047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5FD1677-CB38-4F05-8981-EFFF6CC42134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5E3E9F13-12D8-4341-BB61-A6F6BAFD8938}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B7680EB0-8EF9-4C2B-9545-21230C47B526}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="49">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,103 +65,91 @@
     <t>CC</t>
   </si>
   <si>
-    <t>73192622</t>
-  </si>
-  <si>
-    <t>JORGE ULISES MERCADO BARBOZA</t>
+    <t>1143382496</t>
+  </si>
+  <si>
+    <t>EDUARDO WILSON FIGUEROA CORREA</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1010140965</t>
+  </si>
+  <si>
+    <t>JESUS DAVID COGOLLO MORENO</t>
   </si>
   <si>
     <t>1806</t>
   </si>
   <si>
+    <t>1044933811</t>
+  </si>
+  <si>
+    <t>ROMARIO JOSE AGUILERA MARTINEZ</t>
+  </si>
+  <si>
+    <t>1143356864</t>
+  </si>
+  <si>
+    <t>ZULAY MARIA MARTINEZ PUETA</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1047492435</t>
+  </si>
+  <si>
+    <t>TEYLOR JUNIOR SAN MARTIN CONTRERAS</t>
+  </si>
+  <si>
+    <t>72199979</t>
+  </si>
+  <si>
+    <t>LINO ALBERTO MENDOZA BERDUGO</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1001875097</t>
+  </si>
+  <si>
+    <t>JAIRO ALBERTO MENDOZA RIVERA</t>
+  </si>
+  <si>
     <t>1047471364</t>
   </si>
   <si>
     <t>EDUARDO JOSE RAMOS ACOSTA</t>
   </si>
   <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1128045080</t>
+  </si>
+  <si>
+    <t>RAFEL RICARDO LEON JIMENEZ</t>
+  </si>
+  <si>
     <t>1810</t>
   </si>
   <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1143356864</t>
-  </si>
-  <si>
-    <t>ZULAY MARIA MARTINEZ PUETA</t>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
   </si>
   <si>
     <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1044919432</t>
-  </si>
-  <si>
-    <t>JOSE DAVID BUELVAS BALLESTEROS</t>
-  </si>
-  <si>
-    <t>1143382496</t>
-  </si>
-  <si>
-    <t>EDUARDO WILSON FIGUEROA CORREA</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1128045080</t>
-  </si>
-  <si>
-    <t>RAFEL RICARDO LEON JIMENEZ</t>
-  </si>
-  <si>
-    <t>1010140965</t>
-  </si>
-  <si>
-    <t>JESUS DAVID COGOLLO MORENO</t>
-  </si>
-  <si>
-    <t>1047492435</t>
-  </si>
-  <si>
-    <t>TEYLOR JUNIOR SAN MARTIN CONTRERAS</t>
-  </si>
-  <si>
-    <t>72199979</t>
-  </si>
-  <si>
-    <t>LINO ALBERTO MENDOZA BERDUGO</t>
-  </si>
-  <si>
-    <t>1044933811</t>
-  </si>
-  <si>
-    <t>ROMARIO JOSE AGUILERA MARTINEZ</t>
-  </si>
-  <si>
-    <t>1001875097</t>
-  </si>
-  <si>
-    <t>JAIRO ALBERTO MENDOZA RIVERA</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -205,7 +193,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -260,7 +248,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -273,9 +263,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -475,23 +463,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -519,10 +507,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -560,13 +548,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>667900</xdr:colOff>
+      <xdr:colOff>496450</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>62300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>430650</xdr:colOff>
+      <xdr:colOff>259200</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>121850</xdr:rowOff>
     </xdr:to>
@@ -575,7 +563,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{022EC79F-D5E5-A5E9-18D6-BE956FC3A474}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69FCA398-D024-5328-0A2B-25DA96837E22}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -597,7 +585,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="921900" y="246450"/>
+          <a:off x="750450" y="246450"/>
           <a:ext cx="975600" cy="612000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -926,32 +914,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E5D24AE-1E70-42E6-A90E-61DDC76F52C2}">
-  <dimension ref="B2:J86"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E34B0CE-DC0E-4284-BBA1-B458E9FBED6B}">
+  <dimension ref="B2:J81"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -960,7 +948,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -971,7 +959,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:10">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -982,7 +970,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:10">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -993,10 +981,10 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" ht="9" customHeight="1"/>
+    <row r="7" spans="2:10">
       <c r="B7" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1009,8 +997,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
+    <row r="9" spans="2:10">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -1025,15 +1013,15 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
+    <row r="11" spans="2:10">
       <c r="B11" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>2117778</v>
+        <v>1964865</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1041,17 +1029,17 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
+    <row r="13" spans="2:10">
       <c r="B13" s="9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C13" s="5">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F13" s="5">
         <v>11</v>
@@ -1061,7 +1049,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:10">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1081,16 +1069,16 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1104,7 +1092,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>31249</v>
+        <v>12787</v>
       </c>
       <c r="G16" s="18">
         <v>781242</v>
@@ -1113,7 +1101,7 @@
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:10">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1127,7 +1115,7 @@
         <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>31249</v>
+        <v>27083</v>
       </c>
       <c r="G17" s="18">
         <v>781242</v>
@@ -1136,21 +1124,21 @@
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:10">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F18" s="18">
-        <v>31249</v>
+        <v>27083</v>
       </c>
       <c r="G18" s="18">
         <v>781242</v>
@@ -1159,21 +1147,21 @@
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:10">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F19" s="18">
-        <v>26041</v>
+        <v>31249</v>
       </c>
       <c r="G19" s="18">
         <v>781242</v>
@@ -1182,15 +1170,15 @@
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:10">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>19</v>
@@ -1205,18 +1193,18 @@
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:10">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F21" s="18">
         <v>31249</v>
@@ -1228,41 +1216,41 @@
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:10">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F22" s="18">
-        <v>31249</v>
+        <v>48000</v>
       </c>
       <c r="G22" s="18">
-        <v>781242</v>
+        <v>1200000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:10">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="17" t="s">
-        <v>17</v>
-      </c>
       <c r="E23" s="16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F23" s="18">
         <v>31249</v>
@@ -1274,18 +1262,18 @@
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:10">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F24" s="18">
         <v>31249</v>
@@ -1297,18 +1285,18 @@
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:10">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F25" s="18">
         <v>31249</v>
@@ -1320,18 +1308,18 @@
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:10">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F26" s="18">
         <v>31249</v>
@@ -1343,53 +1331,53 @@
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:10">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E27" s="16" t="s">
         <v>24</v>
       </c>
       <c r="F27" s="18">
-        <v>31249</v>
+        <v>48000</v>
       </c>
       <c r="G27" s="18">
-        <v>781242</v>
+        <v>1200000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:10">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F28" s="18">
-        <v>26041</v>
+        <v>31249</v>
       </c>
       <c r="G28" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:10">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
@@ -1400,79 +1388,79 @@
         <v>26</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F29" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G29" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:10">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="F30" s="18">
         <v>31249</v>
       </c>
       <c r="G30" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:10">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="F31" s="18">
         <v>31249</v>
       </c>
       <c r="G31" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
       <c r="J31" s="20"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:10">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E32" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F32" s="18">
-        <v>12787</v>
+        <v>31249</v>
       </c>
       <c r="G32" s="18">
         <v>781242</v>
@@ -1481,18 +1469,18 @@
       <c r="I32" s="19"/>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:10">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="F33" s="18">
         <v>31249</v>
@@ -1504,18 +1492,18 @@
       <c r="I33" s="19"/>
       <c r="J33" s="20"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:10">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="F34" s="18">
         <v>31249</v>
@@ -1527,41 +1515,41 @@
       <c r="I34" s="19"/>
       <c r="J34" s="20"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:10">
       <c r="B35" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="F35" s="18">
-        <v>26041</v>
+        <v>48000</v>
       </c>
       <c r="G35" s="18">
-        <v>781242</v>
+        <v>1200000</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
       <c r="J35" s="20"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:10">
       <c r="B36" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F36" s="18">
         <v>31249</v>
@@ -1573,18 +1561,18 @@
       <c r="I36" s="19"/>
       <c r="J36" s="20"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:10">
       <c r="B37" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F37" s="18">
         <v>31249</v>
@@ -1596,18 +1584,18 @@
       <c r="I37" s="19"/>
       <c r="J37" s="20"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:10">
       <c r="B38" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E38" s="16" t="s">
         <v>32</v>
-      </c>
-      <c r="D38" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E38" s="16" t="s">
-        <v>21</v>
       </c>
       <c r="F38" s="18">
         <v>31249</v>
@@ -1619,18 +1607,18 @@
       <c r="I38" s="19"/>
       <c r="J38" s="20"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:10">
       <c r="B39" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" s="16" t="s">
         <v>32</v>
-      </c>
-      <c r="D39" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E39" s="16" t="s">
-        <v>22</v>
       </c>
       <c r="F39" s="18">
         <v>31249</v>
@@ -1642,18 +1630,18 @@
       <c r="I39" s="19"/>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:10">
       <c r="B40" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E40" s="16" t="s">
         <v>32</v>
-      </c>
-      <c r="D40" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E40" s="16" t="s">
-        <v>14</v>
       </c>
       <c r="F40" s="18">
         <v>31249</v>
@@ -1665,18 +1653,18 @@
       <c r="I40" s="19"/>
       <c r="J40" s="20"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:10">
       <c r="B41" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="16" t="s">
         <v>32</v>
-      </c>
-      <c r="D41" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E41" s="16" t="s">
-        <v>15</v>
       </c>
       <c r="F41" s="18">
         <v>31249</v>
@@ -1688,18 +1676,18 @@
       <c r="I41" s="19"/>
       <c r="J41" s="20"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:10">
       <c r="B42" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E42" s="16" t="s">
         <v>32</v>
-      </c>
-      <c r="D42" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E42" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="F42" s="18">
         <v>31249</v>
@@ -1711,44 +1699,44 @@
       <c r="I42" s="19"/>
       <c r="J42" s="20"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:10">
       <c r="B43" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E43" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D43" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E43" s="16" t="s">
-        <v>24</v>
-      </c>
       <c r="F43" s="18">
-        <v>31249</v>
+        <v>48000</v>
       </c>
       <c r="G43" s="18">
-        <v>781242</v>
+        <v>1200000</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
       <c r="J43" s="20"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:10">
       <c r="B44" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D44" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E44" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F44" s="18">
-        <v>27083</v>
+        <v>31249</v>
       </c>
       <c r="G44" s="18">
         <v>781242</v>
@@ -1757,21 +1745,21 @@
       <c r="I44" s="19"/>
       <c r="J44" s="20"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:10">
       <c r="B45" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="F45" s="18">
-        <v>26041</v>
+        <v>31249</v>
       </c>
       <c r="G45" s="18">
         <v>781242</v>
@@ -1780,18 +1768,18 @@
       <c r="I45" s="19"/>
       <c r="J45" s="20"/>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:10">
       <c r="B46" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="F46" s="18">
         <v>31249</v>
@@ -1803,18 +1791,18 @@
       <c r="I46" s="19"/>
       <c r="J46" s="20"/>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:10">
       <c r="B47" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="F47" s="18">
         <v>31249</v>
@@ -1826,18 +1814,18 @@
       <c r="I47" s="19"/>
       <c r="J47" s="20"/>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:10">
       <c r="B48" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="F48" s="18">
         <v>31249</v>
@@ -1849,41 +1837,41 @@
       <c r="I48" s="19"/>
       <c r="J48" s="20"/>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:10">
       <c r="B49" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="F49" s="18">
-        <v>31249</v>
+        <v>48000</v>
       </c>
       <c r="G49" s="18">
-        <v>781242</v>
+        <v>1200000</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
       <c r="J49" s="20"/>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:10">
       <c r="B50" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="F50" s="18">
         <v>31249</v>
@@ -1895,18 +1883,18 @@
       <c r="I50" s="19"/>
       <c r="J50" s="20"/>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:10">
       <c r="B51" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F51" s="18">
         <v>31249</v>
@@ -1918,18 +1906,18 @@
       <c r="I51" s="19"/>
       <c r="J51" s="20"/>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:10">
       <c r="B52" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E52" s="16" t="s">
         <v>34</v>
-      </c>
-      <c r="D52" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E52" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="F52" s="18">
         <v>31249</v>
@@ -1941,18 +1929,18 @@
       <c r="I52" s="19"/>
       <c r="J52" s="20"/>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:10">
       <c r="B53" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" s="16" t="s">
         <v>34</v>
-      </c>
-      <c r="D53" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E53" s="16" t="s">
-        <v>24</v>
       </c>
       <c r="F53" s="18">
         <v>31249</v>
@@ -1964,41 +1952,41 @@
       <c r="I53" s="19"/>
       <c r="J53" s="20"/>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:10">
       <c r="B54" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="F54" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G54" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
       <c r="J54" s="20"/>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:10">
       <c r="B55" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="F55" s="18">
         <v>48000</v>
@@ -2010,133 +1998,133 @@
       <c r="I55" s="19"/>
       <c r="J55" s="20"/>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:10">
       <c r="B56" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="F56" s="18">
-        <v>48000</v>
+        <v>31249</v>
       </c>
       <c r="G56" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
       <c r="J56" s="20"/>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:10">
       <c r="B57" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="F57" s="18">
-        <v>48000</v>
+        <v>31249</v>
       </c>
       <c r="G57" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
       <c r="J57" s="20"/>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:10">
       <c r="B58" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="F58" s="18">
-        <v>48000</v>
+        <v>31249</v>
       </c>
       <c r="G58" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
       <c r="J58" s="20"/>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:10">
       <c r="B59" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="F59" s="18">
-        <v>48000</v>
+        <v>31249</v>
       </c>
       <c r="G59" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
       <c r="J59" s="20"/>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:10">
       <c r="B60" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="F60" s="18">
-        <v>48000</v>
+        <v>31249</v>
       </c>
       <c r="G60" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
       <c r="J60" s="20"/>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:10">
       <c r="B61" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F61" s="18">
         <v>48000</v>
@@ -2148,44 +2136,44 @@
       <c r="I61" s="19"/>
       <c r="J61" s="20"/>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:10">
       <c r="B62" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="F62" s="18">
-        <v>48000</v>
+        <v>31249</v>
       </c>
       <c r="G62" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
       <c r="J62" s="20"/>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:10">
       <c r="B63" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="F63" s="18">
-        <v>26041</v>
+        <v>31249</v>
       </c>
       <c r="G63" s="18">
         <v>781242</v>
@@ -2194,18 +2182,18 @@
       <c r="I63" s="19"/>
       <c r="J63" s="20"/>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:10">
       <c r="B64" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F64" s="18">
         <v>31249</v>
@@ -2217,18 +2205,18 @@
       <c r="I64" s="19"/>
       <c r="J64" s="20"/>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:10">
       <c r="B65" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="F65" s="18">
         <v>31249</v>
@@ -2240,18 +2228,18 @@
       <c r="I65" s="19"/>
       <c r="J65" s="20"/>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:10">
       <c r="B66" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="F66" s="18">
         <v>31249</v>
@@ -2263,41 +2251,41 @@
       <c r="I66" s="19"/>
       <c r="J66" s="20"/>
     </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:10">
       <c r="B67" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="F67" s="18">
-        <v>31249</v>
+        <v>48000</v>
       </c>
       <c r="G67" s="18">
-        <v>781242</v>
+        <v>1200000</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
       <c r="J67" s="20"/>
     </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:10">
       <c r="B68" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="F68" s="18">
         <v>31249</v>
@@ -2309,18 +2297,18 @@
       <c r="I68" s="19"/>
       <c r="J68" s="20"/>
     </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:10">
       <c r="B69" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="F69" s="18">
         <v>31249</v>
@@ -2332,21 +2320,21 @@
       <c r="I69" s="19"/>
       <c r="J69" s="20"/>
     </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:10">
       <c r="B70" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="F70" s="18">
-        <v>31249</v>
+        <v>26041</v>
       </c>
       <c r="G70" s="18">
         <v>781242</v>
@@ -2355,21 +2343,21 @@
       <c r="I70" s="19"/>
       <c r="J70" s="20"/>
     </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:10">
       <c r="B71" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="F71" s="18">
-        <v>31249</v>
+        <v>26041</v>
       </c>
       <c r="G71" s="18">
         <v>781242</v>
@@ -2378,21 +2366,21 @@
       <c r="I71" s="19"/>
       <c r="J71" s="20"/>
     </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:10">
       <c r="B72" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="F72" s="18">
-        <v>27083</v>
+        <v>26041</v>
       </c>
       <c r="G72" s="18">
         <v>781242</v>
@@ -2401,44 +2389,44 @@
       <c r="I72" s="19"/>
       <c r="J72" s="20"/>
     </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:10">
       <c r="B73" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="F73" s="18">
-        <v>26041</v>
+        <v>40000</v>
       </c>
       <c r="G73" s="18">
-        <v>781242</v>
+        <v>1200000</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
       <c r="J73" s="20"/>
     </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:10">
       <c r="B74" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="F74" s="18">
-        <v>31249</v>
+        <v>26041</v>
       </c>
       <c r="G74" s="18">
         <v>781242</v>
@@ -2447,172 +2435,57 @@
       <c r="I74" s="19"/>
       <c r="J74" s="20"/>
     </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B75" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C75" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D75" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E75" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F75" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G75" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H75" s="19"/>
-      <c r="I75" s="19"/>
-      <c r="J75" s="20"/>
-    </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B76" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C76" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D76" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E76" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F76" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G76" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H76" s="19"/>
-      <c r="I76" s="19"/>
-      <c r="J76" s="20"/>
-    </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B77" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C77" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D77" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E77" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F77" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G77" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H77" s="19"/>
-      <c r="I77" s="19"/>
-      <c r="J77" s="20"/>
-    </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B78" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C78" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D78" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E78" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F78" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G78" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H78" s="19"/>
-      <c r="I78" s="19"/>
-      <c r="J78" s="20"/>
-    </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B79" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C79" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D79" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E79" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F79" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G79" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H79" s="19"/>
-      <c r="I79" s="19"/>
-      <c r="J79" s="20"/>
-    </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B80" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C80" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="D80" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E80" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="F80" s="24">
-        <v>31249</v>
-      </c>
-      <c r="G80" s="24">
-        <v>781242</v>
-      </c>
-      <c r="H80" s="25"/>
-      <c r="I80" s="25"/>
-      <c r="J80" s="26"/>
-    </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B85" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="C85" s="32"/>
-      <c r="H85" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I85" s="1"/>
-      <c r="J85" s="1"/>
-    </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B86" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="C86" s="32"/>
-      <c r="H86" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I86" s="1"/>
-      <c r="J86" s="1"/>
+    <row r="75" spans="2:10">
+      <c r="B75" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D75" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E75" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F75" s="24">
+        <v>26041</v>
+      </c>
+      <c r="G75" s="24">
+        <v>781242</v>
+      </c>
+      <c r="H75" s="25"/>
+      <c r="I75" s="25"/>
+      <c r="J75" s="26"/>
+    </row>
+    <row r="80" spans="2:10">
+      <c r="B80" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C80" s="32"/>
+      <c r="H80" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+    </row>
+    <row r="81" spans="2:10">
+      <c r="B81" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C81" s="32"/>
+      <c r="H81" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="H86:J86"/>
-    <mergeCell ref="H85:J85"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="H81:J81"/>
+    <mergeCell ref="H80:J80"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
